--- a/static/stock predictions.xlsx
+++ b/static/stock predictions.xlsx
@@ -1608,10 +1608,10 @@
         <v>211</v>
       </c>
       <c r="D2">
-        <v>1660.949951171875</v>
+        <v>1673.099975585938</v>
       </c>
       <c r="E2">
-        <v>1638.522118998269</v>
+        <v>1674.666249049696</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1625,10 +1625,10 @@
         <v>212</v>
       </c>
       <c r="D3">
-        <v>870.3499755859375</v>
+        <v>871.7000122070312</v>
       </c>
       <c r="E3">
-        <v>860.2485053988639</v>
+        <v>869.2923077007727</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1642,10 +1642,10 @@
         <v>213</v>
       </c>
       <c r="D4">
-        <v>1762.900024414062</v>
+        <v>1783.75</v>
       </c>
       <c r="E4">
-        <v>1732.469401373244</v>
+        <v>1787.823323607445</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1659,10 +1659,10 @@
         <v>214</v>
       </c>
       <c r="D5">
-        <v>930.5499877929688</v>
+        <v>932.7000122070312</v>
       </c>
       <c r="E5">
-        <v>915.2356850219039</v>
+        <v>934.2679643120937</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1676,10 +1676,10 @@
         <v>215</v>
       </c>
       <c r="D6">
-        <v>592.2000122070312</v>
+        <v>600.4500122070312</v>
       </c>
       <c r="E6">
-        <v>579.4085930929396</v>
+        <v>598.5069585077326</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1693,10 +1693,10 @@
         <v>216</v>
       </c>
       <c r="D7">
-        <v>1202.449951171875</v>
+        <v>1204.699951171875</v>
       </c>
       <c r="E7">
-        <v>1172.001991095749</v>
+        <v>1196.164047080543</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1710,10 +1710,10 @@
         <v>217</v>
       </c>
       <c r="D8">
-        <v>237.1499938964844</v>
+        <v>247.9499969482422</v>
       </c>
       <c r="E8">
-        <v>235.4159107833366</v>
+        <v>247.5573787916346</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1727,10 +1727,10 @@
         <v>218</v>
       </c>
       <c r="D9">
-        <v>134.25</v>
+        <v>136</v>
       </c>
       <c r="E9">
-        <v>133.1095018386841</v>
+        <v>135.8970427513123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1744,10 +1744,10 @@
         <v>219</v>
       </c>
       <c r="D10">
-        <v>169.8000030517578</v>
+        <v>167.3999938964844</v>
       </c>
       <c r="E10">
-        <v>166.4506533139984</v>
+        <v>169.0814556462428</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1761,10 +1761,10 @@
         <v>220</v>
       </c>
       <c r="D11">
-        <v>59.34999847412109</v>
+        <v>59.29999923706055</v>
       </c>
       <c r="E11">
-        <v>58.80858572921351</v>
+        <v>59.53791722945243</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1778,10 +1778,10 @@
         <v>221</v>
       </c>
       <c r="D12">
-        <v>179.3500061035156</v>
+        <v>180.5500030517578</v>
       </c>
       <c r="E12">
-        <v>174.8182617075799</v>
+        <v>181.0952512296808</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1795,10 +1795,10 @@
         <v>222</v>
       </c>
       <c r="D13">
-        <v>56.95000076293945</v>
+        <v>56.79999923706055</v>
       </c>
       <c r="E13">
-        <v>55.77219608636369</v>
+        <v>56.83261556581556</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1812,10 +1812,10 @@
         <v>223</v>
       </c>
       <c r="D14">
-        <v>30.85000038146973</v>
+        <v>30.25</v>
       </c>
       <c r="E14">
-        <v>30.48418149495774</v>
+        <v>30.37328830361366</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1829,10 +1829,10 @@
         <v>224</v>
       </c>
       <c r="D15">
-        <v>318.9500122070312</v>
+        <v>323.0499877929688</v>
       </c>
       <c r="E15">
-        <v>312.4568956006005</v>
+        <v>324.3329285732907</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1846,10 +1846,10 @@
         <v>225</v>
       </c>
       <c r="D16">
-        <v>90.1999969482422</v>
+        <v>87.59999847412109</v>
       </c>
       <c r="E16">
-        <v>88.45174061014406</v>
+        <v>86.68380002187178</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1863,10 +1863,10 @@
         <v>226</v>
       </c>
       <c r="D17">
-        <v>31.89999961853028</v>
+        <v>31.14999961853028</v>
       </c>
       <c r="E17">
-        <v>31.39334812770176</v>
+        <v>31.2151618234284</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1880,10 +1880,10 @@
         <v>227</v>
       </c>
       <c r="D18">
-        <v>81.25</v>
+        <v>81.5</v>
       </c>
       <c r="E18">
-        <v>80.08829541504383</v>
+        <v>81.6597529053688</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1897,10 +1897,10 @@
         <v>228</v>
       </c>
       <c r="D19">
-        <v>286.8999938964844</v>
+        <v>287.8999938964844</v>
       </c>
       <c r="E19">
-        <v>282.3140821419238</v>
+        <v>286.7060574307834</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1914,10 +1914,10 @@
         <v>229</v>
       </c>
       <c r="D20">
-        <v>31.29999923706055</v>
+        <v>30.89999961853028</v>
       </c>
       <c r="E20">
-        <v>30.65066833886749</v>
+        <v>31.28842807528668</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1931,10 +1931,10 @@
         <v>230</v>
       </c>
       <c r="D21">
-        <v>159.75</v>
+        <v>158.3999938964844</v>
       </c>
       <c r="E21">
-        <v>156.9195848554373</v>
+        <v>159.6353789807181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1948,10 +1948,10 @@
         <v>231</v>
       </c>
       <c r="D22">
-        <v>1296.099975585938</v>
+        <v>1295.400024414062</v>
       </c>
       <c r="E22">
-        <v>1296.503239266429</v>
+        <v>1299.671229991349</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1965,10 +1965,10 @@
         <v>232</v>
       </c>
       <c r="D23">
-        <v>470.7000122070313</v>
+        <v>474.7000122070313</v>
       </c>
       <c r="E23">
-        <v>466.8386496674976</v>
+        <v>473.1659221671908</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1982,10 +1982,10 @@
         <v>233</v>
       </c>
       <c r="D24">
-        <v>1052.449951171875</v>
+        <v>1059.300048828125</v>
       </c>
       <c r="E24">
-        <v>1042.407360513025</v>
+        <v>1065.740500103275</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1999,10 +1999,10 @@
         <v>234</v>
       </c>
       <c r="D25">
-        <v>752.4500122070312</v>
+        <v>767.1500244140625</v>
       </c>
       <c r="E25">
-        <v>749.0345870387791</v>
+        <v>769.1294901702931</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2016,10 +2016,10 @@
         <v>235</v>
       </c>
       <c r="D26">
-        <v>590.5499877929688</v>
+        <v>589.2000122070312</v>
       </c>
       <c r="E26">
-        <v>585.3537639201895</v>
+        <v>587.098522929522</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2033,10 +2033,10 @@
         <v>236</v>
       </c>
       <c r="D27">
-        <v>1153.5</v>
+        <v>1160</v>
       </c>
       <c r="E27">
-        <v>1136.991349697113</v>
+        <v>1159.618339538574</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2050,10 +2050,10 @@
         <v>237</v>
       </c>
       <c r="D28">
-        <v>2715.949951171875</v>
+        <v>2741.89990234375</v>
       </c>
       <c r="E28">
-        <v>2683.289199686129</v>
+        <v>2738.54321419631</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2067,10 +2067,10 @@
         <v>238</v>
       </c>
       <c r="D29">
-        <v>5860.39990234375</v>
+        <v>5863</v>
       </c>
       <c r="E29">
-        <v>5780.389025686309</v>
+        <v>5908.12323653698</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2084,10 +2084,10 @@
         <v>239</v>
       </c>
       <c r="D30">
-        <v>124.0999984741211</v>
+        <v>124.3499984741211</v>
       </c>
       <c r="E30">
-        <v>123.6804294518561</v>
+        <v>125.341924684989</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2101,10 +2101,10 @@
         <v>240</v>
       </c>
       <c r="D31">
-        <v>135.6999969482422</v>
+        <v>138.6999969482422</v>
       </c>
       <c r="E31">
-        <v>133.7156658380445</v>
+        <v>140.7770888467585</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2118,10 +2118,10 @@
         <v>241</v>
       </c>
       <c r="D32">
-        <v>1277.300048828125</v>
+        <v>1284.599975585938</v>
       </c>
       <c r="E32">
-        <v>1262.310447769545</v>
+        <v>1257.983593600198</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2135,10 +2135,10 @@
         <v>242</v>
       </c>
       <c r="D33">
-        <v>2022.150024414062</v>
+        <v>2000.800048828125</v>
       </c>
       <c r="E33">
-        <v>1997.599363656467</v>
+        <v>2016.421281623596</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2152,10 +2152,10 @@
         <v>243</v>
       </c>
       <c r="D34">
-        <v>1333.199951171875</v>
+        <v>1332.75</v>
       </c>
       <c r="E34">
-        <v>1317.136755434884</v>
+        <v>1330.870812535286</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2169,10 +2169,10 @@
         <v>244</v>
       </c>
       <c r="D35">
-        <v>150.3999938964844</v>
+        <v>151</v>
       </c>
       <c r="E35">
-        <v>149.5734096862543</v>
+        <v>152.2168947458267</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2186,10 +2186,10 @@
         <v>245</v>
       </c>
       <c r="D36">
-        <v>706.25</v>
+        <v>712.7999877929688</v>
       </c>
       <c r="E36">
-        <v>694.503004103899</v>
+        <v>705.2890241955538</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2203,10 +2203,10 @@
         <v>246</v>
       </c>
       <c r="D37">
-        <v>73</v>
+        <v>73.30000305175781</v>
       </c>
       <c r="E37">
-        <v>72.18182051181793</v>
+        <v>72.57957776169678</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2220,10 +2220,10 @@
         <v>247</v>
       </c>
       <c r="D38">
-        <v>3572.75</v>
+        <v>3623.550048828125</v>
       </c>
       <c r="E38">
-        <v>3542.313551753759</v>
+        <v>3600.156346321775</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2237,10 +2237,10 @@
         <v>248</v>
       </c>
       <c r="D39">
-        <v>2746.449951171875</v>
+        <v>2774.60009765625</v>
       </c>
       <c r="E39">
-        <v>2736.276905431412</v>
+        <v>2774.613327980507</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2254,10 +2254,10 @@
         <v>249</v>
       </c>
       <c r="D40">
-        <v>2225.35009765625</v>
+        <v>2247.39990234375</v>
       </c>
       <c r="E40">
-        <v>2235.766676537343</v>
+        <v>2235.159721012315</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2271,10 +2271,10 @@
         <v>250</v>
       </c>
       <c r="D41">
-        <v>1314.75</v>
+        <v>1328.449951171875</v>
       </c>
       <c r="E41">
-        <v>1310.907283723354</v>
+        <v>1325.766163668333</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2288,10 +2288,10 @@
         <v>251</v>
       </c>
       <c r="D42">
-        <v>89557</v>
+        <v>90280.3515625</v>
       </c>
       <c r="E42">
-        <v>88166.07924574614</v>
+        <v>89951.43009607447</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2305,10 +2305,10 @@
         <v>252</v>
       </c>
       <c r="D43">
-        <v>3150.5</v>
+        <v>3203.35009765625</v>
       </c>
       <c r="E43">
-        <v>3122.9105232656</v>
+        <v>3182.861866341293</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2322,10 +2322,10 @@
         <v>253</v>
       </c>
       <c r="D44">
-        <v>16954.55078125</v>
+        <v>16926.099609375</v>
       </c>
       <c r="E44">
-        <v>16483.15121481544</v>
+        <v>16919.5257853833</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2339,10 +2339,10 @@
         <v>254</v>
       </c>
       <c r="D45">
-        <v>144.0500030517578</v>
+        <v>147.3500061035156</v>
       </c>
       <c r="E45">
-        <v>142.1725775201739</v>
+        <v>147.3554162742948</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2356,10 +2356,10 @@
         <v>255</v>
       </c>
       <c r="D46">
-        <v>403.1499938964844</v>
+        <v>408.3999938964844</v>
       </c>
       <c r="E46">
-        <v>396.1665800943247</v>
+        <v>410.8116576788016</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2373,10 +2373,10 @@
         <v>256</v>
       </c>
       <c r="D47">
-        <v>8439.7998046875</v>
+        <v>8417.099609375</v>
       </c>
       <c r="E47">
-        <v>8299.017888656817</v>
+        <v>8434.255682125222</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2390,10 +2390,10 @@
         <v>257</v>
       </c>
       <c r="D48">
-        <v>969.9000244140624</v>
+        <v>981.7000122070312</v>
       </c>
       <c r="E48">
-        <v>960.270868559688</v>
+        <v>976.8668827051952</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2407,10 +2407,10 @@
         <v>258</v>
       </c>
       <c r="D49">
-        <v>861.3499755859375</v>
+        <v>879.25</v>
       </c>
       <c r="E49">
-        <v>853.205325119081</v>
+        <v>869.3939005285501</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2424,10 +2424,10 @@
         <v>259</v>
       </c>
       <c r="D50">
-        <v>407.9500122070313</v>
+        <v>417.75</v>
       </c>
       <c r="E50">
-        <v>403.1596460309702</v>
+        <v>418.2885337471962</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2441,10 +2441,10 @@
         <v>260</v>
       </c>
       <c r="D51">
-        <v>2634.75</v>
+        <v>2587.800048828125</v>
       </c>
       <c r="E51">
-        <v>2612.34038682282</v>
+        <v>2562.308148010387</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2458,10 +2458,10 @@
         <v>261</v>
       </c>
       <c r="D52">
-        <v>19200.05078125</v>
+        <v>19367.099609375</v>
       </c>
       <c r="E52">
-        <v>19031.20191548066</v>
+        <v>19142.4697732873</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2475,10 +2475,10 @@
         <v>262</v>
       </c>
       <c r="D53">
-        <v>424.4500122070313</v>
+        <v>418</v>
       </c>
       <c r="E53">
-        <v>419.9322595578524</v>
+        <v>420.6264622211456</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2492,10 +2492,10 @@
         <v>263</v>
       </c>
       <c r="D54">
-        <v>13607.349609375</v>
+        <v>13601.9501953125</v>
       </c>
       <c r="E54">
-        <v>13552.82601752935</v>
+        <v>13603.12901041412</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2509,10 +2509,10 @@
         <v>264</v>
       </c>
       <c r="D55">
-        <v>2548.75</v>
+        <v>2596.39990234375</v>
       </c>
       <c r="E55">
-        <v>2550.438105463982</v>
+        <v>2560.253968287056</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2526,10 +2526,10 @@
         <v>265</v>
       </c>
       <c r="D56">
-        <v>566</v>
+        <v>564.4000244140625</v>
       </c>
       <c r="E56">
-        <v>565.2556101083755</v>
+        <v>558.2876814582414</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2543,10 +2543,10 @@
         <v>266</v>
       </c>
       <c r="D57">
-        <v>738.4500122070312</v>
+        <v>742.4500122070312</v>
       </c>
       <c r="E57">
-        <v>739.3112106882836</v>
+        <v>730.4735630659088</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2560,10 +2560,10 @@
         <v>267</v>
       </c>
       <c r="D58">
-        <v>505.2000122070313</v>
+        <v>503.9500122070313</v>
       </c>
       <c r="E58">
-        <v>503.9076840326853</v>
+        <v>497.3437772908983</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2577,10 +2577,10 @@
         <v>268</v>
       </c>
       <c r="D59">
-        <v>932.4000244140624</v>
+        <v>926.8499755859376</v>
       </c>
       <c r="E59">
-        <v>929.1815434566814</v>
+        <v>910.9367790539546</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2594,10 +2594,10 @@
         <v>269</v>
       </c>
       <c r="D60">
-        <v>334.6000061035156</v>
+        <v>337.75</v>
       </c>
       <c r="E60">
-        <v>330.7999506853248</v>
+        <v>334.6603630930185</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2611,10 +2611,10 @@
         <v>270</v>
       </c>
       <c r="D61">
-        <v>1568.699951171875</v>
+        <v>1580.949951171875</v>
       </c>
       <c r="E61">
-        <v>1540.10625819159</v>
+        <v>1570.055323087887</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2628,10 +2628,10 @@
         <v>271</v>
       </c>
       <c r="D62">
-        <v>1500.050048828125</v>
+        <v>1490.699951171875</v>
       </c>
       <c r="E62">
-        <v>1491.403838403712</v>
+        <v>1492.00839516407</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2645,10 +2645,10 @@
         <v>272</v>
       </c>
       <c r="D63">
-        <v>821.9500122070312</v>
+        <v>828.9000244140625</v>
       </c>
       <c r="E63">
-        <v>810.1629686721026</v>
+        <v>822.4576416263881</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2662,10 +2662,10 @@
         <v>273</v>
       </c>
       <c r="D64">
-        <v>1051</v>
+        <v>1041.75</v>
       </c>
       <c r="E64">
-        <v>1044.469688653946</v>
+        <v>1043.30133497715</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2679,10 +2679,10 @@
         <v>274</v>
       </c>
       <c r="D65">
-        <v>4318.9501953125</v>
+        <v>4337.85009765625</v>
       </c>
       <c r="E65">
-        <v>4302.588749077113</v>
+        <v>4278.011703631229</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2696,10 +2696,10 @@
         <v>275</v>
       </c>
       <c r="D66">
-        <v>1232.650024414062</v>
+        <v>1236.849975585938</v>
       </c>
       <c r="E66">
-        <v>1228.747797244985</v>
+        <v>1221.321762558364</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2713,10 +2713,10 @@
         <v>276</v>
       </c>
       <c r="D67">
-        <v>2024.650024414062</v>
+        <v>2058.800048828125</v>
       </c>
       <c r="E67">
-        <v>2025.330168696499</v>
+        <v>2042.892749814418</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2730,10 +2730,10 @@
         <v>277</v>
       </c>
       <c r="D68">
-        <v>1525.550048828125</v>
+        <v>1548</v>
       </c>
       <c r="E68">
-        <v>1519.572592046272</v>
+        <v>1534.954321146011</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2747,10 +2747,10 @@
         <v>278</v>
       </c>
       <c r="D69">
-        <v>4323.5</v>
+        <v>4593.14990234375</v>
       </c>
       <c r="E69">
-        <v>4315.800934433937</v>
+        <v>4495.490942274657</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2764,10 +2764,10 @@
         <v>279</v>
       </c>
       <c r="D70">
-        <v>1107.800048828125</v>
+        <v>1121.199951171875</v>
       </c>
       <c r="E70">
-        <v>1118.489386004483</v>
+        <v>1112.809003313232</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2781,10 +2781,10 @@
         <v>280</v>
       </c>
       <c r="D71">
-        <v>403.1499938964844</v>
+        <v>407</v>
       </c>
       <c r="E71">
-        <v>400.9156244377809</v>
+        <v>407.7020580768585</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2798,10 +2798,10 @@
         <v>281</v>
       </c>
       <c r="D72">
-        <v>3363.10009765625</v>
+        <v>3414.89990234375</v>
       </c>
       <c r="E72">
-        <v>3375.040883697104</v>
+        <v>3427.379992759961</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2815,10 +2815,10 @@
         <v>282</v>
       </c>
       <c r="D73">
-        <v>3230.699951171875</v>
+        <v>3322.89990234375</v>
       </c>
       <c r="E73">
-        <v>3211.565179780242</v>
+        <v>3263.10431898135</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2832,10 +2832,10 @@
         <v>283</v>
       </c>
       <c r="D74">
-        <v>4268.0498046875</v>
+        <v>4368.85009765625</v>
       </c>
       <c r="E74">
-        <v>4251.929519178055</v>
+        <v>4318.31770677265</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2849,10 +2849,10 @@
         <v>284</v>
       </c>
       <c r="D75">
-        <v>1046.5</v>
+        <v>1065.300048828125</v>
       </c>
       <c r="E75">
-        <v>1049.945914149284</v>
+        <v>1063.897848309382</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2866,10 +2866,10 @@
         <v>285</v>
       </c>
       <c r="D76">
-        <v>4102</v>
+        <v>4358.89990234375</v>
       </c>
       <c r="E76">
-        <v>4126.247869729996</v>
+        <v>4320.330747043918</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2883,10 +2883,10 @@
         <v>286</v>
       </c>
       <c r="D77">
-        <v>484.6000061035156</v>
+        <v>489.7999877929688</v>
       </c>
       <c r="E77">
-        <v>483.422561964464</v>
+        <v>484.5497627017067</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2900,10 +2900,10 @@
         <v>287</v>
       </c>
       <c r="D78">
-        <v>1610.900024414062</v>
+        <v>1622.949951171875</v>
       </c>
       <c r="E78">
-        <v>1589.225695007379</v>
+        <v>1635.922162321338</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2917,10 +2917,10 @@
         <v>288</v>
       </c>
       <c r="D79">
-        <v>484</v>
+        <v>482.6000061035156</v>
       </c>
       <c r="E79">
-        <v>481.8544683456421</v>
+        <v>486.1444542856261</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2934,10 +2934,10 @@
         <v>289</v>
       </c>
       <c r="D80">
-        <v>359.3500061035156</v>
+        <v>331.75</v>
       </c>
       <c r="E80">
-        <v>353.433797920592</v>
+        <v>331.7269239276648</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2951,10 +2951,10 @@
         <v>290</v>
       </c>
       <c r="D81">
-        <v>222.75</v>
+        <v>223.8500061035156</v>
       </c>
       <c r="E81">
-        <v>218.9006050676107</v>
+        <v>225.4153748998687</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2968,10 +2968,10 @@
         <v>291</v>
       </c>
       <c r="D82">
-        <v>35.20000076293945</v>
+        <v>34.79999923706055</v>
       </c>
       <c r="E82">
-        <v>34.48038748135104</v>
+        <v>34.99840459388633</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2985,10 +2985,10 @@
         <v>292</v>
       </c>
       <c r="D83">
-        <v>588.75</v>
+        <v>593.75</v>
       </c>
       <c r="E83">
-        <v>586.1500163376331</v>
+        <v>603.8239784538746</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3002,10 +3002,10 @@
         <v>293</v>
       </c>
       <c r="D84">
-        <v>61.34999847412109</v>
+        <v>61.5</v>
       </c>
       <c r="E84">
-        <v>60.3233417557717</v>
+        <v>61.59280782938004</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3019,10 +3019,10 @@
         <v>294</v>
       </c>
       <c r="D85">
-        <v>255.4499969482422</v>
+        <v>257.7000122070312</v>
       </c>
       <c r="E85">
-        <v>252.4672832130091</v>
+        <v>256.3445893420467</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3036,10 +3036,10 @@
         <v>295</v>
       </c>
       <c r="D86">
-        <v>741.4500122070312</v>
+        <v>733.9500122070312</v>
       </c>
       <c r="E86">
-        <v>731.1783416159633</v>
+        <v>735.7462570369971</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3053,10 +3053,10 @@
         <v>296</v>
       </c>
       <c r="D87">
-        <v>330.8999938964844</v>
+        <v>329.1499938964844</v>
       </c>
       <c r="E87">
-        <v>327.9622267430495</v>
+        <v>328.1694428506526</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3070,10 +3070,10 @@
         <v>297</v>
       </c>
       <c r="D88">
-        <v>601.0999755859375</v>
+        <v>603.9000244140625</v>
       </c>
       <c r="E88">
-        <v>597.412342608739</v>
+        <v>603.5814664831123</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3087,10 +3087,10 @@
         <v>298</v>
       </c>
       <c r="D89">
-        <v>3456.14990234375</v>
+        <v>3436.35009765625</v>
       </c>
       <c r="E89">
-        <v>3386.111700722686</v>
+        <v>3436.875262358808</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3104,10 +3104,10 @@
         <v>299</v>
       </c>
       <c r="D90">
-        <v>489.9500122070313</v>
+        <v>494.2000122070313</v>
       </c>
       <c r="E90">
-        <v>488.0264202741346</v>
+        <v>490.5824157178905</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3121,10 +3121,10 @@
         <v>300</v>
       </c>
       <c r="D91">
-        <v>122.9499969482422</v>
+        <v>122</v>
       </c>
       <c r="E91">
-        <v>122.3572620360155</v>
+        <v>120.782924413681</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3138,10 +3138,10 @@
         <v>301</v>
       </c>
       <c r="D92">
-        <v>226.6999969482422</v>
+        <v>226.3999938964844</v>
       </c>
       <c r="E92">
-        <v>224.7395002927051</v>
+        <v>229.1831247533082</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3155,10 +3155,10 @@
         <v>302</v>
       </c>
       <c r="D93">
-        <v>1964.400024414062</v>
+        <v>1981.099975585937</v>
       </c>
       <c r="E93">
-        <v>1963.851118843886</v>
+        <v>1961.514768961031</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3172,10 +3172,10 @@
         <v>303</v>
       </c>
       <c r="D94">
-        <v>130.0500030517578</v>
+        <v>129.25</v>
       </c>
       <c r="E94">
-        <v>129.4440462089442</v>
+        <v>131.1874076724052</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3189,10 +3189,10 @@
         <v>304</v>
       </c>
       <c r="D95">
-        <v>169.1999969482422</v>
+        <v>171.0500030517578</v>
       </c>
       <c r="E95">
-        <v>167.2371630784246</v>
+        <v>173.0045787206327</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3206,10 +3206,10 @@
         <v>305</v>
       </c>
       <c r="D96">
-        <v>1196.699951171875</v>
+        <v>1164.75</v>
       </c>
       <c r="E96">
-        <v>1187.586760052349</v>
+        <v>1161.127429068089</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3223,10 +3223,10 @@
         <v>306</v>
       </c>
       <c r="D97">
-        <v>83.94999694824219</v>
+        <v>84.5</v>
       </c>
       <c r="E97">
-        <v>82.8888139961482</v>
+        <v>85.39125525951385</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3240,10 +3240,10 @@
         <v>307</v>
       </c>
       <c r="D98">
-        <v>91.5</v>
+        <v>93.09999847412109</v>
       </c>
       <c r="E98">
-        <v>91.08325687050819</v>
+        <v>92.66457554815588</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3257,10 +3257,10 @@
         <v>308</v>
       </c>
       <c r="D99">
-        <v>353</v>
+        <v>346.2000122070312</v>
       </c>
       <c r="E99">
-        <v>352.3277579545975</v>
+        <v>344.0286395141775</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3274,10 +3274,10 @@
         <v>309</v>
       </c>
       <c r="D100">
-        <v>21797.349609375</v>
+        <v>21884.55078125</v>
       </c>
       <c r="E100">
-        <v>21721.93489483441</v>
+        <v>21876.05769693037</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3291,10 +3291,10 @@
         <v>310</v>
       </c>
       <c r="D101">
-        <v>3032.39990234375</v>
+        <v>3046.300048828125</v>
       </c>
       <c r="E101">
-        <v>3026.995984776004</v>
+        <v>3015.90807268185</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3308,10 +3308,10 @@
         <v>311</v>
       </c>
       <c r="D102">
-        <v>1386.650024414062</v>
+        <v>1375.650024414062</v>
       </c>
       <c r="E102">
-        <v>1374.266375076295</v>
+        <v>1351.852413541928</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3325,10 +3325,10 @@
         <v>312</v>
       </c>
       <c r="D103">
-        <v>755.0499877929688</v>
+        <v>765.5499877929688</v>
       </c>
       <c r="E103">
-        <v>744.0835195913642</v>
+        <v>767.8133436736171</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3342,10 +3342,10 @@
         <v>313</v>
       </c>
       <c r="D104">
-        <v>1030.349975585938</v>
+        <v>1049.300048828125</v>
       </c>
       <c r="E104">
-        <v>1025.634881631995</v>
+        <v>1041.833584241322</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3359,10 +3359,10 @@
         <v>314</v>
       </c>
       <c r="D105">
-        <v>5677.25</v>
+        <v>5626.60009765625</v>
       </c>
       <c r="E105">
-        <v>5654.929087847471</v>
+        <v>5623.035769353039</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3376,10 +3376,10 @@
         <v>315</v>
       </c>
       <c r="D106">
-        <v>1582.050048828125</v>
+        <v>1597.599975585938</v>
       </c>
       <c r="E106">
-        <v>1592.208721861854</v>
+        <v>1577.917572560684</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3393,10 +3393,10 @@
         <v>316</v>
       </c>
       <c r="D107">
-        <v>438.2000122070313</v>
+        <v>444.2999877929688</v>
       </c>
       <c r="E107">
-        <v>434.1460678401782</v>
+        <v>442.5246115218616</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3410,10 +3410,10 @@
         <v>317</v>
       </c>
       <c r="D108">
-        <v>3343.14990234375</v>
+        <v>3385.699951171875</v>
       </c>
       <c r="E108">
-        <v>3287.183101235511</v>
+        <v>3388.889252783556</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3427,10 +3427,10 @@
         <v>318</v>
       </c>
       <c r="D109">
-        <v>4138.0498046875</v>
+        <v>4107.64990234375</v>
       </c>
       <c r="E109">
-        <v>4106.285865545447</v>
+        <v>4083.287349511229</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3444,10 +3444,10 @@
         <v>319</v>
       </c>
       <c r="D110">
-        <v>1053.449951171875</v>
+        <v>1062.550048828125</v>
       </c>
       <c r="E110">
-        <v>1042.122229192188</v>
+        <v>1050.479237946493</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3461,10 +3461,10 @@
         <v>320</v>
       </c>
       <c r="D111">
-        <v>1289.199951171875</v>
+        <v>1277.650024414062</v>
       </c>
       <c r="E111">
-        <v>1287.046138201273</v>
+        <v>1291.850133028769</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3478,10 +3478,10 @@
         <v>321</v>
       </c>
       <c r="D112">
-        <v>4350.60009765625</v>
+        <v>4337.85009765625</v>
       </c>
       <c r="E112">
-        <v>4340.885602661467</v>
+        <v>4303.622711057804</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3495,10 +3495,10 @@
         <v>322</v>
       </c>
       <c r="D113">
-        <v>417.8999938964844</v>
+        <v>418.7000122070313</v>
       </c>
       <c r="E113">
-        <v>413.7995353284332</v>
+        <v>415.726050039848</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3512,10 +3512,10 @@
         <v>323</v>
       </c>
       <c r="D114">
-        <v>535.9000244140625</v>
+        <v>536.5</v>
       </c>
       <c r="E114">
-        <v>530.4353966548006</v>
+        <v>536.8456170558929</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3529,10 +3529,10 @@
         <v>324</v>
       </c>
       <c r="D115">
-        <v>347.1000061035156</v>
+        <v>348.8999938964844</v>
       </c>
       <c r="E115">
-        <v>346.9239860265297</v>
+        <v>345.6071041325595</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3546,10 +3546,10 @@
         <v>325</v>
       </c>
       <c r="D116">
-        <v>244.9499969482422</v>
+        <v>248.3500061035156</v>
       </c>
       <c r="E116">
-        <v>242.3099088580511</v>
+        <v>245.5973044374586</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3563,10 +3563,10 @@
         <v>326</v>
       </c>
       <c r="D117">
-        <v>862.0999755859375</v>
+        <v>871.7000122070312</v>
       </c>
       <c r="E117">
-        <v>860.9514144269051</v>
+        <v>871.4446417355539</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3580,10 +3580,10 @@
         <v>327</v>
       </c>
       <c r="D118">
-        <v>444.7000122070313</v>
+        <v>445.8500061035156</v>
       </c>
       <c r="E118">
-        <v>442.3928342364707</v>
+        <v>443.3564459220943</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3597,10 +3597,10 @@
         <v>328</v>
       </c>
       <c r="D119">
-        <v>313.4500122070312</v>
+        <v>312.1499938964844</v>
       </c>
       <c r="E119">
-        <v>312.3239644953173</v>
+        <v>313.2032191070612</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3614,10 +3614,10 @@
         <v>329</v>
       </c>
       <c r="D120">
-        <v>369.2999877929688</v>
+        <v>369.5499877929688</v>
       </c>
       <c r="E120">
-        <v>361.5566743728014</v>
+        <v>370.6544163458312</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3631,10 +3631,10 @@
         <v>330</v>
       </c>
       <c r="D121">
-        <v>442.7000122070313</v>
+        <v>440.0499877929688</v>
       </c>
       <c r="E121">
-        <v>440.8084353759842</v>
+        <v>440.4820847212614</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3648,10 +3648,10 @@
         <v>331</v>
       </c>
       <c r="D122">
-        <v>831.5499877929688</v>
+        <v>829.0499877929688</v>
       </c>
       <c r="E122">
-        <v>816.7887653491198</v>
+        <v>830.6264324611766</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3665,10 +3665,10 @@
         <v>332</v>
       </c>
       <c r="D123">
-        <v>455.0499877929688</v>
+        <v>445.5499877929688</v>
       </c>
       <c r="E123">
-        <v>451.6690128965166</v>
+        <v>442.6499799092417</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3682,10 +3682,10 @@
         <v>333</v>
       </c>
       <c r="D124">
-        <v>1121.949951171875</v>
+        <v>1094.550048828125</v>
       </c>
       <c r="E124">
-        <v>1102.541075457426</v>
+        <v>1090.432539866466</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3699,10 +3699,10 @@
         <v>334</v>
       </c>
       <c r="D125">
-        <v>1231.150024414062</v>
+        <v>1232.550048828125</v>
       </c>
       <c r="E125">
-        <v>1218.282298381266</v>
+        <v>1244.572711914225</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3716,10 +3716,10 @@
         <v>335</v>
       </c>
       <c r="D126">
-        <v>1395.099975585938</v>
+        <v>1399.599975585938</v>
       </c>
       <c r="E126">
-        <v>1381.449841893176</v>
+        <v>1384.185220009756</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3733,10 +3733,10 @@
         <v>336</v>
       </c>
       <c r="D127">
-        <v>367.25</v>
+        <v>368.7000122070313</v>
       </c>
       <c r="E127">
-        <v>365.2852804809809</v>
+        <v>369.7060841655039</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3750,10 +3750,10 @@
         <v>337</v>
       </c>
       <c r="D128">
-        <v>617.2999877929688</v>
+        <v>597.4500122070312</v>
       </c>
       <c r="E128">
-        <v>615.5156653578269</v>
+        <v>605.8653417935784</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3767,10 +3767,10 @@
         <v>338</v>
       </c>
       <c r="D129">
-        <v>75.5</v>
+        <v>73.90000152587891</v>
       </c>
       <c r="E129">
-        <v>74.36942264437675</v>
+        <v>73.64830780105649</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3784,10 +3784,10 @@
         <v>339</v>
       </c>
       <c r="D130">
-        <v>1655.349975585938</v>
+        <v>1631.300048828125</v>
       </c>
       <c r="E130">
-        <v>1628.892244934839</v>
+        <v>1641.533828386018</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3801,10 +3801,10 @@
         <v>340</v>
       </c>
       <c r="D131">
-        <v>24420.94921875</v>
+        <v>23037.05078125</v>
       </c>
       <c r="E131">
-        <v>24099.95840938878</v>
+        <v>22883.88389685773</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3818,10 +3818,10 @@
         <v>341</v>
       </c>
       <c r="D132">
-        <v>7431.4501953125</v>
+        <v>7139.9501953125</v>
       </c>
       <c r="E132">
-        <v>7282.499752212898</v>
+        <v>7280.735245943768</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3835,10 +3835,10 @@
         <v>342</v>
       </c>
       <c r="D133">
-        <v>151.6000061035156</v>
+        <v>152.3500061035156</v>
       </c>
       <c r="E133">
-        <v>151.8602447614539</v>
+        <v>150.4936337829986</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3852,10 +3852,10 @@
         <v>343</v>
       </c>
       <c r="D134">
-        <v>1839.099975585937</v>
+        <v>1767.199951171875</v>
       </c>
       <c r="E134">
-        <v>1816.74407772893</v>
+        <v>1786.281293723267</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3869,10 +3869,10 @@
         <v>344</v>
       </c>
       <c r="D135">
-        <v>2105.199951171875</v>
+        <v>2113.75</v>
       </c>
       <c r="E135">
-        <v>2096.715641576142</v>
+        <v>2110.426527783275</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3886,10 +3886,10 @@
         <v>345</v>
       </c>
       <c r="D136">
-        <v>2442.64990234375</v>
+        <v>2430.300048828125</v>
       </c>
       <c r="E136">
-        <v>2410.081704818906</v>
+        <v>2444.915557964239</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3903,10 +3903,10 @@
         <v>346</v>
       </c>
       <c r="D137">
-        <v>704.75</v>
+        <v>689.9000244140625</v>
       </c>
       <c r="E137">
-        <v>696.5768199265003</v>
+        <v>697.3457661641005</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3920,10 +3920,10 @@
         <v>347</v>
       </c>
       <c r="D138">
-        <v>7177.14990234375</v>
+        <v>6849.75</v>
       </c>
       <c r="E138">
-        <v>7021.886838274804</v>
+        <v>6866.330125540495</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3937,10 +3937,10 @@
         <v>348</v>
       </c>
       <c r="D139">
-        <v>227</v>
+        <v>230.1000061035156</v>
       </c>
       <c r="E139">
-        <v>225.1174409985542</v>
+        <v>229.2040306807321</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3954,10 +3954,10 @@
         <v>349</v>
       </c>
       <c r="D140">
-        <v>3238.14990234375</v>
+        <v>3128.85009765625</v>
       </c>
       <c r="E140">
-        <v>3187.008753339993</v>
+        <v>3124.133477936994</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3971,10 +3971,10 @@
         <v>350</v>
       </c>
       <c r="D141">
-        <v>2402.60009765625</v>
+        <v>2409.60009765625</v>
       </c>
       <c r="E141">
-        <v>2373.52252352066</v>
+        <v>2397.898528197024</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3988,10 +3988,10 @@
         <v>351</v>
       </c>
       <c r="D142">
-        <v>1975.599975585937</v>
+        <v>1931.849975585937</v>
       </c>
       <c r="E142">
-        <v>1962.580754488663</v>
+        <v>1932.854980622942</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4005,10 +4005,10 @@
         <v>352</v>
       </c>
       <c r="D143">
-        <v>2355.60009765625</v>
+        <v>2323.449951171875</v>
       </c>
       <c r="E143">
-        <v>2314.273376182071</v>
+        <v>2316.633967146467</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4022,10 +4022,10 @@
         <v>353</v>
       </c>
       <c r="D144">
-        <v>245.8999938964844</v>
+        <v>250.3999938964844</v>
       </c>
       <c r="E144">
-        <v>242.5915625141697</v>
+        <v>247.208864146769</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4039,10 +4039,10 @@
         <v>354</v>
       </c>
       <c r="D145">
-        <v>168.6999969482422</v>
+        <v>166.8500061035156</v>
       </c>
       <c r="E145">
-        <v>167.3037677957864</v>
+        <v>165.2552003455894</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4056,10 +4056,10 @@
         <v>355</v>
       </c>
       <c r="D146">
-        <v>82.90000152587891</v>
+        <v>83.44999694824219</v>
       </c>
       <c r="E146">
-        <v>82.61098432604967</v>
+        <v>82.98691685701124</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4073,10 +4073,10 @@
         <v>356</v>
       </c>
       <c r="D147">
-        <v>1887.550048828125</v>
+        <v>1885.800048828125</v>
       </c>
       <c r="E147">
-        <v>1862.146474669862</v>
+        <v>1893.315276102105</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4090,10 +4090,10 @@
         <v>357</v>
       </c>
       <c r="D148">
-        <v>517.75</v>
+        <v>501.1000061035156</v>
       </c>
       <c r="E148">
-        <v>507.9331827312708</v>
+        <v>498.9114366205195</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4107,10 +4107,10 @@
         <v>358</v>
       </c>
       <c r="D149">
-        <v>346.3500061035156</v>
+        <v>349.6000061035156</v>
       </c>
       <c r="E149">
-        <v>343.3793245626512</v>
+        <v>348.3227749601538</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4124,10 +4124,10 @@
         <v>359</v>
       </c>
       <c r="D150">
-        <v>975.8499755859376</v>
+        <v>977.1500244140624</v>
       </c>
       <c r="E150">
-        <v>966.0578074908336</v>
+        <v>975.737697664379</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4141,10 +4141,10 @@
         <v>360</v>
       </c>
       <c r="D151">
-        <v>207.1999969482422</v>
+        <v>207</v>
       </c>
       <c r="E151">
-        <v>204.1996803248758</v>
+        <v>207.4640135765076</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4158,10 +4158,10 @@
         <v>361</v>
       </c>
       <c r="D152">
-        <v>4065.10009765625</v>
+        <v>3963.449951171875</v>
       </c>
       <c r="E152">
-        <v>4033.938285204204</v>
+        <v>4030.919630238699</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4175,10 +4175,10 @@
         <v>362</v>
       </c>
       <c r="D153">
-        <v>737.7999877929688</v>
+        <v>749.4500122070312</v>
       </c>
       <c r="E153">
-        <v>733.5130015605682</v>
+        <v>747.0787126750947</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4192,10 +4192,10 @@
         <v>363</v>
       </c>
       <c r="D154">
-        <v>223.25</v>
+        <v>225.1000061035156</v>
       </c>
       <c r="E154">
-        <v>222.1878562569618</v>
+        <v>223.6454416595879</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4209,10 +4209,10 @@
         <v>364</v>
       </c>
       <c r="D155">
-        <v>99</v>
+        <v>102.25</v>
       </c>
       <c r="E155">
-        <v>97.62067991495132</v>
+        <v>101.4227528721094</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4226,10 +4226,10 @@
         <v>365</v>
       </c>
       <c r="D156">
-        <v>2737.949951171875</v>
+        <v>2784.10009765625</v>
       </c>
       <c r="E156">
-        <v>2722.307755063783</v>
+        <v>2771.877064890083</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4243,10 +4243,10 @@
         <v>366</v>
       </c>
       <c r="D157">
-        <v>42.59999847412109</v>
+        <v>42.79999923706055</v>
       </c>
       <c r="E157">
-        <v>42.13767624365254</v>
+        <v>42.27017079344114</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4260,10 +4260,10 @@
         <v>367</v>
       </c>
       <c r="D158">
-        <v>235.5500030517578</v>
+        <v>240.1499938964844</v>
       </c>
       <c r="E158">
-        <v>236.5629799795261</v>
+        <v>236.6567775809472</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4277,10 +4277,10 @@
         <v>368</v>
       </c>
       <c r="D159">
-        <v>101.8000030517578</v>
+        <v>101.5500030517578</v>
       </c>
       <c r="E159">
-        <v>100.8679658491155</v>
+        <v>101.6302759731097</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4294,10 +4294,10 @@
         <v>369</v>
       </c>
       <c r="D160">
-        <v>38</v>
+        <v>37.45000076293945</v>
       </c>
       <c r="E160">
-        <v>37.41018652915955</v>
+        <v>37.2806308115787</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4311,10 +4311,10 @@
         <v>370</v>
       </c>
       <c r="D161">
-        <v>34.04999923706055</v>
+        <v>34.09999847412109</v>
       </c>
       <c r="E161">
-        <v>33.41916805429105</v>
+        <v>33.96275064367273</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4328,10 +4328,10 @@
         <v>371</v>
       </c>
       <c r="D162">
-        <v>508.2999877929688</v>
+        <v>505.75</v>
       </c>
       <c r="E162">
-        <v>504.1110887162541</v>
+        <v>510.519489377737</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4345,10 +4345,10 @@
         <v>372</v>
       </c>
       <c r="D163">
-        <v>705.6500244140625</v>
+        <v>700.9000244140625</v>
       </c>
       <c r="E163">
-        <v>697.720449024273</v>
+        <v>705.8758199517615</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4362,10 +4362,10 @@
         <v>373</v>
       </c>
       <c r="D164">
-        <v>641.4500122070312</v>
+        <v>642.7999877929688</v>
       </c>
       <c r="E164">
-        <v>631.5869802117923</v>
+        <v>644.7903930762914</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4379,10 +4379,10 @@
         <v>374</v>
       </c>
       <c r="D165">
-        <v>2509.5</v>
+        <v>2524.449951171875</v>
       </c>
       <c r="E165">
-        <v>2480.848361670971</v>
+        <v>2505.937757164676</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4396,10 +4396,10 @@
         <v>375</v>
       </c>
       <c r="D166">
-        <v>80.80000305175781</v>
+        <v>80.19999694824219</v>
       </c>
       <c r="E166">
-        <v>79.94120885466418</v>
+        <v>79.87630901376269</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4413,10 +4413,10 @@
         <v>376</v>
       </c>
       <c r="D167">
-        <v>698.5499877929688</v>
+        <v>700.9000244140625</v>
       </c>
       <c r="E167">
-        <v>694.7371789197823</v>
+        <v>703.7156201628095</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4430,10 +4430,10 @@
         <v>377</v>
       </c>
       <c r="D168">
-        <v>171.4499969482422</v>
+        <v>172.8999938964844</v>
       </c>
       <c r="E168">
-        <v>167.5598377115557</v>
+        <v>172.8794856674758</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4447,10 +4447,10 @@
         <v>378</v>
       </c>
       <c r="D169">
-        <v>222.9499969482422</v>
+        <v>226.6000061035156</v>
       </c>
       <c r="E169">
-        <v>220.4433068707976</v>
+        <v>226.6740482588684</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4464,10 +4464,10 @@
         <v>379</v>
       </c>
       <c r="D170">
-        <v>764.4500122070312</v>
+        <v>772.7000122070312</v>
       </c>
       <c r="E170">
-        <v>756.6887824309306</v>
+        <v>764.8279875048138</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4481,10 +4481,10 @@
         <v>380</v>
       </c>
       <c r="D171">
-        <v>4285.25</v>
+        <v>4335.4501953125</v>
       </c>
       <c r="E171">
-        <v>4263.101184979081</v>
+        <v>4255.102367739193</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4498,10 +4498,10 @@
         <v>381</v>
       </c>
       <c r="D172">
-        <v>774.4500122070312</v>
+        <v>769.0499877929688</v>
       </c>
       <c r="E172">
-        <v>762.2164260932732</v>
+        <v>768.7140341186205</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4515,10 +4515,10 @@
         <v>382</v>
       </c>
       <c r="D173">
-        <v>3060.89990234375</v>
+        <v>3058.5</v>
       </c>
       <c r="E173">
-        <v>3037.772954856104</v>
+        <v>3008.474106609821</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4532,10 +4532,10 @@
         <v>383</v>
       </c>
       <c r="D174">
-        <v>2249.949951171875</v>
+        <v>2233.5</v>
       </c>
       <c r="E174">
-        <v>2244.032056841534</v>
+        <v>2208.772995829582</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4549,10 +4549,10 @@
         <v>384</v>
       </c>
       <c r="D175">
-        <v>2099.85009765625</v>
+        <v>2121.800048828125</v>
       </c>
       <c r="E175">
-        <v>2069.484330678417</v>
+        <v>2142.177768127178</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4566,10 +4566,10 @@
         <v>385</v>
       </c>
       <c r="D176">
-        <v>295.5499877929688</v>
+        <v>298.0499877929688</v>
       </c>
       <c r="E176">
-        <v>286.2905507276228</v>
+        <v>298.5988958193557</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4583,10 +4583,10 @@
         <v>386</v>
       </c>
       <c r="D177">
-        <v>4563.0498046875</v>
+        <v>4540</v>
       </c>
       <c r="E177">
-        <v>4522.860289306089</v>
+        <v>4533.601272106171</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4600,10 +4600,10 @@
         <v>387</v>
       </c>
       <c r="D178">
-        <v>40511.80078125</v>
+        <v>40706.80078125</v>
       </c>
       <c r="E178">
-        <v>39917.19748880994</v>
+        <v>40317.55444091954</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4617,10 +4617,10 @@
         <v>388</v>
       </c>
       <c r="D179">
-        <v>1565.949951171875</v>
+        <v>1571.300048828125</v>
       </c>
       <c r="E179">
-        <v>1544.448448023089</v>
+        <v>1561.862910579439</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4634,10 +4634,10 @@
         <v>389</v>
       </c>
       <c r="D180">
-        <v>7.25</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="E180">
-        <v>7.160038411617279</v>
+        <v>7.086224211242325</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4651,10 +4651,10 @@
         <v>390</v>
       </c>
       <c r="D181">
-        <v>1936.400024414062</v>
+        <v>1930.900024414062</v>
       </c>
       <c r="E181">
-        <v>1928.971001388345</v>
+        <v>1957.686443178784</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4668,10 +4668,10 @@
         <v>391</v>
       </c>
       <c r="D182">
-        <v>2668.699951171875</v>
+        <v>2649.64990234375</v>
       </c>
       <c r="E182">
-        <v>2623.754799681701</v>
+        <v>2634.045328363718</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4685,10 +4685,10 @@
         <v>392</v>
       </c>
       <c r="D183">
-        <v>1447.25</v>
+        <v>1427.050048828125</v>
       </c>
       <c r="E183">
-        <v>1429.706384807825</v>
+        <v>1417.351132818003</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4702,10 +4702,10 @@
         <v>393</v>
       </c>
       <c r="D184">
-        <v>3042.64990234375</v>
+        <v>3094.25</v>
       </c>
       <c r="E184">
-        <v>3033.203064834292</v>
+        <v>3084.12507006526</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4719,10 +4719,10 @@
         <v>394</v>
       </c>
       <c r="D185">
-        <v>22707.75</v>
+        <v>22756.099609375</v>
       </c>
       <c r="E185">
-        <v>22822.78018480539</v>
+        <v>22796.86935580126</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4736,10 +4736,10 @@
         <v>395</v>
       </c>
       <c r="D186">
-        <v>418.5499877929688</v>
+        <v>412.7999877929688</v>
       </c>
       <c r="E186">
-        <v>418.8071468635899</v>
+        <v>413.0923911961873</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4753,10 +4753,10 @@
         <v>396</v>
       </c>
       <c r="D187">
-        <v>2933.75</v>
+        <v>2947.699951171875</v>
       </c>
       <c r="E187">
-        <v>2894.106327146292</v>
+        <v>2942.530781253372</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4770,10 +4770,10 @@
         <v>397</v>
       </c>
       <c r="D188">
-        <v>3918.89990234375</v>
+        <v>3901.10009765625</v>
       </c>
       <c r="E188">
-        <v>3868.145230997761</v>
+        <v>3894.591062126536</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4787,10 +4787,10 @@
         <v>398</v>
       </c>
       <c r="D189">
-        <v>3513.75</v>
+        <v>3434</v>
       </c>
       <c r="E189">
-        <v>3439.020157679915</v>
+        <v>3422.838876128197</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4804,10 +4804,10 @@
         <v>399</v>
       </c>
       <c r="D190">
-        <v>3670.550048828125</v>
+        <v>3746.199951171875</v>
       </c>
       <c r="E190">
-        <v>3640.63316480357</v>
+        <v>3748.083633350616</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4821,10 +4821,10 @@
         <v>400</v>
       </c>
       <c r="D191">
-        <v>616.3499755859375</v>
+        <v>640.9000244140625</v>
       </c>
       <c r="E191">
-        <v>612.0370140591986</v>
+        <v>630.9942602854499</v>
       </c>
     </row>
   </sheetData>
